--- a/data/trans_orig/P27_1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P27_1-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3CE2879-A027-4188-8BEE-54D060E50F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B144D45-E5A0-4A98-B8A7-B470D5814AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BA165103-C238-40EB-A9AD-25130CB384A2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8C454AE0-916B-415E-B2D1-31DCE28B7F2F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="816">
   <si>
     <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los días de diario en 2007 (Tasa respuesta: 94,99%)</t>
   </si>
@@ -95,2359 +95,2353 @@
     <t>5,32%</t>
   </si>
   <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>De 1 a 4 horas</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>Menos de una hora</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los días de diario en 2012 (Tasa respuesta: 96,74%)</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los días de diario en 2015 (Tasa respuesta: 97,66%)</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>De 1 a 4 horas</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>Menos de una hora</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
   </si>
   <si>
     <t>3,97%</t>
   </si>
   <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los días de diario en 2023 (Tasa respuesta: 99,59%)</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
   </si>
   <si>
     <t>5,81%</t>
   </si>
   <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
   </si>
   <si>
     <t>5,59%</t>
   </si>
   <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los días de diario en 2012 (Tasa respuesta: 96,74%)</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
   </si>
   <si>
     <t>5,17%</t>
   </si>
   <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
   </si>
   <si>
     <t>9,79%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los días de diario en 2015 (Tasa respuesta: 97,66%)</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los días de diario en 2023 (Tasa respuesta: 99,59%)</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
   </si>
   <si>
     <t>12,27%</t>
@@ -2904,7 +2898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A50870-0029-423F-A292-A05C104819C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF0DDCF-B5DB-4B5B-A26E-FD211C2A8397}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3695,13 +3689,13 @@
         <v>77940</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H17" s="7">
         <v>48</v>
@@ -3710,13 +3704,13 @@
         <v>50439</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M17" s="7">
         <v>119</v>
@@ -3725,13 +3719,13 @@
         <v>128379</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,13 +3740,13 @@
         <v>202535</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H18" s="7">
         <v>126</v>
@@ -3761,13 +3755,13 @@
         <v>134493</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M18" s="7">
         <v>313</v>
@@ -3776,13 +3770,13 @@
         <v>337028</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3797,13 +3791,13 @@
         <v>341017</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H19" s="7">
         <v>359</v>
@@ -3812,13 +3806,13 @@
         <v>379335</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M19" s="7">
         <v>676</v>
@@ -3827,13 +3821,13 @@
         <v>720353</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3848,13 +3842,13 @@
         <v>303170</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H20" s="7">
         <v>349</v>
@@ -3863,13 +3857,13 @@
         <v>373793</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M20" s="7">
         <v>637</v>
@@ -3878,13 +3872,13 @@
         <v>676963</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3940,7 +3934,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3958,7 +3952,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3973,7 +3967,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -3988,7 +3982,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4003,13 +3997,13 @@
         <v>45948</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H23" s="7">
         <v>25</v>
@@ -4018,13 +4012,13 @@
         <v>23504</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M23" s="7">
         <v>68</v>
@@ -4033,13 +4027,13 @@
         <v>69452</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4054,13 +4048,13 @@
         <v>133387</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H24" s="7">
         <v>81</v>
@@ -4069,13 +4063,13 @@
         <v>77837</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M24" s="7">
         <v>204</v>
@@ -4084,13 +4078,13 @@
         <v>211223</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,13 +4099,13 @@
         <v>255600</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H25" s="7">
         <v>256</v>
@@ -4120,13 +4114,13 @@
         <v>258208</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M25" s="7">
         <v>494</v>
@@ -4135,13 +4129,13 @@
         <v>513808</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4156,13 +4150,13 @@
         <v>216466</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H26" s="7">
         <v>308</v>
@@ -4171,13 +4165,13 @@
         <v>301584</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M26" s="7">
         <v>516</v>
@@ -4186,13 +4180,13 @@
         <v>518049</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4248,7 +4242,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4266,7 +4260,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4281,7 +4275,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4296,7 +4290,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4311,13 +4305,13 @@
         <v>70567</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H29" s="7">
         <v>51</v>
@@ -4326,13 +4320,13 @@
         <v>54318</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M29" s="7">
         <v>125</v>
@@ -4341,13 +4335,13 @@
         <v>124885</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4362,10 +4356,10 @@
         <v>185085</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>189</v>
@@ -4395,10 +4389,10 @@
         <v>193</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>114</v>
+        <v>194</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4413,13 +4407,13 @@
         <v>352851</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H31" s="7">
         <v>370</v>
@@ -4428,13 +4422,13 @@
         <v>384718</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>93</v>
+        <v>200</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M31" s="7">
         <v>734</v>
@@ -4443,13 +4437,13 @@
         <v>737569</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4464,13 +4458,13 @@
         <v>272981</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H32" s="7">
         <v>362</v>
@@ -4479,13 +4473,13 @@
         <v>376689</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M32" s="7">
         <v>658</v>
@@ -4494,13 +4488,13 @@
         <v>649670</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4574,7 +4568,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -4589,7 +4583,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -4604,7 +4598,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4619,13 +4613,13 @@
         <v>259906</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H35" s="7">
         <v>150</v>
@@ -4634,13 +4628,13 @@
         <v>154315</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="M35" s="7">
         <v>400</v>
@@ -4649,13 +4643,13 @@
         <v>414221</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,13 +4664,13 @@
         <v>653068</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H36" s="7">
         <v>456</v>
@@ -4685,13 +4679,13 @@
         <v>467786</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M36" s="7">
         <v>1094</v>
@@ -4700,13 +4694,13 @@
         <v>1120854</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,13 +4715,13 @@
         <v>1212197</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H37" s="7">
         <v>1281</v>
@@ -4736,13 +4730,13 @@
         <v>1316075</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M37" s="7">
         <v>2461</v>
@@ -4751,13 +4745,13 @@
         <v>2528273</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4772,13 +4766,13 @@
         <v>988542</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H38" s="7">
         <v>1245</v>
@@ -4787,13 +4781,13 @@
         <v>1272436</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M38" s="7">
         <v>2230</v>
@@ -4802,13 +4796,13 @@
         <v>2260978</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>174</v>
+        <v>250</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4864,7 +4858,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -4885,7 +4879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A54B081-8E6C-4108-BA4C-037989BB9462}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0217F85F-ABDD-4F88-8F25-42013F8D6313}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4902,7 +4896,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5015,7 +5009,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5030,7 +5024,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5045,7 +5039,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5060,13 +5054,13 @@
         <v>1764</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>255</v>
+        <v>102</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -5075,13 +5069,13 @@
         <v>1053</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -5090,13 +5084,13 @@
         <v>2816</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5111,13 +5105,13 @@
         <v>12613</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -5126,7 +5120,7 @@
         <v>7290</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>264</v>
+        <v>147</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>265</v>
@@ -5168,7 +5162,7 @@
         <v>271</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>272</v>
+        <v>193</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -5177,13 +5171,13 @@
         <v>13319</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -5192,13 +5186,13 @@
         <v>27020</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>275</v>
+        <v>112</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>277</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5213,13 +5207,13 @@
         <v>85910</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H8" s="7">
         <v>78</v>
@@ -5228,13 +5222,13 @@
         <v>87717</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="M8" s="7">
         <v>169</v>
@@ -5243,13 +5237,13 @@
         <v>173626</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,13 +5362,13 @@
         <v>10700</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -5383,13 +5377,13 @@
         <v>7087</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M11" s="7">
         <v>17</v>
@@ -5398,13 +5392,13 @@
         <v>17787</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5419,13 +5413,13 @@
         <v>24162</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>66</v>
+        <v>295</v>
       </c>
       <c r="H12" s="7">
         <v>19</v>
@@ -5434,13 +5428,13 @@
         <v>20048</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="M12" s="7">
         <v>42</v>
@@ -5449,13 +5443,13 @@
         <v>44210</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5485,13 +5479,13 @@
         <v>54661</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M13" s="7">
         <v>120</v>
@@ -5500,13 +5494,13 @@
         <v>125037</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5521,13 +5515,13 @@
         <v>480562</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="H14" s="7">
         <v>465</v>
@@ -5536,13 +5530,13 @@
         <v>495142</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="M14" s="7">
         <v>914</v>
@@ -5551,13 +5545,13 @@
         <v>975704</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5631,7 +5625,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5646,7 +5640,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5661,7 +5655,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5676,13 +5670,13 @@
         <v>23311</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -5691,10 +5685,10 @@
         <v>18059</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>324</v>
@@ -5727,13 +5721,13 @@
         <v>48190</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="H18" s="7">
         <v>39</v>
@@ -5742,13 +5736,13 @@
         <v>41181</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>332</v>
+        <v>17</v>
       </c>
       <c r="M18" s="7">
         <v>84</v>
@@ -5757,13 +5751,13 @@
         <v>89371</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5778,13 +5772,13 @@
         <v>131620</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="H19" s="7">
         <v>90</v>
@@ -5793,13 +5787,13 @@
         <v>97085</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>338</v>
+        <v>69</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M19" s="7">
         <v>215</v>
@@ -5808,13 +5802,13 @@
         <v>228705</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5829,13 +5823,13 @@
         <v>803843</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H20" s="7">
         <v>784</v>
@@ -5844,13 +5838,13 @@
         <v>865103</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="M20" s="7">
         <v>1517</v>
@@ -5859,13 +5853,13 @@
         <v>1668946</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5921,7 +5915,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5939,7 +5933,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5954,7 +5948,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5969,7 +5963,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5984,13 +5978,13 @@
         <v>10572</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>292</v>
+        <v>354</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -5999,13 +5993,13 @@
         <v>7663</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="M23" s="7">
         <v>18</v>
@@ -6014,13 +6008,13 @@
         <v>18235</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>362</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6035,13 +6029,13 @@
         <v>21526</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H24" s="7">
         <v>18</v>
@@ -6050,13 +6044,13 @@
         <v>20629</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="M24" s="7">
         <v>37</v>
@@ -6065,13 +6059,13 @@
         <v>42156</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>369</v>
+        <v>324</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6086,13 +6080,13 @@
         <v>78507</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H25" s="7">
         <v>83</v>
@@ -6101,13 +6095,13 @@
         <v>88171</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="M25" s="7">
         <v>158</v>
@@ -6116,13 +6110,13 @@
         <v>166678</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>142</v>
+        <v>374</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>373</v>
+        <v>340</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6137,13 +6131,13 @@
         <v>631959</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="H26" s="7">
         <v>588</v>
@@ -6152,13 +6146,13 @@
         <v>651020</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="M26" s="7">
         <v>1160</v>
@@ -6167,13 +6161,13 @@
         <v>1282979</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6229,7 +6223,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6247,7 +6241,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6262,7 +6256,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -6292,13 +6286,13 @@
         <v>20589</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>144</v>
+        <v>385</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>388</v>
+        <v>352</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H29" s="7">
         <v>21</v>
@@ -6307,13 +6301,13 @@
         <v>21319</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>321</v>
+        <v>388</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M29" s="7">
         <v>42</v>
@@ -6322,13 +6316,13 @@
         <v>41908</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6343,13 +6337,13 @@
         <v>42099</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="H30" s="7">
         <v>46</v>
@@ -6358,13 +6352,13 @@
         <v>46462</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>399</v>
+        <v>142</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>400</v>
+        <v>179</v>
       </c>
       <c r="M30" s="7">
         <v>88</v>
@@ -6373,13 +6367,13 @@
         <v>88560</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6394,13 +6388,13 @@
         <v>145976</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H31" s="7">
         <v>110</v>
@@ -6409,13 +6403,13 @@
         <v>115292</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="M31" s="7">
         <v>253</v>
@@ -6424,13 +6418,13 @@
         <v>261267</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6445,13 +6439,13 @@
         <v>672034</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="H32" s="7">
         <v>733</v>
@@ -6460,13 +6454,13 @@
         <v>771593</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M32" s="7">
         <v>1374</v>
@@ -6475,13 +6469,13 @@
         <v>1443627</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6555,7 +6549,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6570,7 +6564,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6585,7 +6579,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6600,13 +6594,13 @@
         <v>66935</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>422</v>
+        <v>366</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>14</v>
+        <v>418</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H35" s="7">
         <v>53</v>
@@ -6615,13 +6609,13 @@
         <v>55181</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>393</v>
+        <v>420</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>425</v>
+        <v>18</v>
       </c>
       <c r="M35" s="7">
         <v>119</v>
@@ -6630,13 +6624,13 @@
         <v>122116</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6651,13 +6645,13 @@
         <v>148591</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>431</v>
+        <v>145</v>
       </c>
       <c r="H36" s="7">
         <v>129</v>
@@ -6666,13 +6660,13 @@
         <v>135610</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="M36" s="7">
         <v>270</v>
@@ -6681,13 +6675,13 @@
         <v>284201</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6702,13 +6696,13 @@
         <v>440180</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="H37" s="7">
         <v>346</v>
@@ -6717,13 +6711,13 @@
         <v>368528</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>303</v>
+        <v>437</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="M37" s="7">
         <v>772</v>
@@ -6732,13 +6726,13 @@
         <v>808708</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6753,13 +6747,13 @@
         <v>2674307</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H38" s="7">
         <v>2648</v>
@@ -6768,13 +6762,13 @@
         <v>2870575</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="M38" s="7">
         <v>5134</v>
@@ -6783,13 +6777,13 @@
         <v>5544883</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>315</v>
+        <v>450</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6845,7 +6839,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -6866,7 +6860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3AD568-0228-4471-9633-836CAB0591A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD071760-7615-4297-ABC0-7EB1049744D6}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6883,7 +6877,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6996,7 +6990,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7011,7 +7005,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7026,7 +7020,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7041,13 +7035,13 @@
         <v>1108</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -7056,13 +7050,13 @@
         <v>1843</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>219</v>
+        <v>457</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -7071,13 +7065,13 @@
         <v>2951</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>460</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>461</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7092,13 +7086,13 @@
         <v>9209</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>464</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -7107,13 +7101,13 @@
         <v>2317</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>463</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
@@ -7122,13 +7116,13 @@
         <v>11526</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7227,10 +7221,10 @@
         <v>483</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7319,7 +7313,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -7349,13 +7343,13 @@
         <v>12197</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>489</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -7364,13 +7358,13 @@
         <v>6567</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>467</v>
+        <v>489</v>
       </c>
       <c r="M11" s="7">
         <v>16</v>
@@ -7379,13 +7373,13 @@
         <v>18764</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7400,13 +7394,13 @@
         <v>30543</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>495</v>
-      </c>
       <c r="G12" s="7" t="s">
-        <v>339</v>
+        <v>178</v>
       </c>
       <c r="H12" s="7">
         <v>17</v>
@@ -7415,13 +7409,13 @@
         <v>17205</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M12" s="7">
         <v>46</v>
@@ -7430,13 +7424,13 @@
         <v>47748</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7451,13 +7445,13 @@
         <v>99434</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>502</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>503</v>
+        <v>226</v>
       </c>
       <c r="H13" s="7">
         <v>67</v>
@@ -7466,13 +7460,13 @@
         <v>69094</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>310</v>
+        <v>502</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>505</v>
       </c>
       <c r="M13" s="7">
         <v>160</v>
@@ -7481,13 +7475,13 @@
         <v>168528</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7502,13 +7496,13 @@
         <v>395021</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>511</v>
       </c>
       <c r="H14" s="7">
         <v>444</v>
@@ -7517,13 +7511,13 @@
         <v>449182</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>514</v>
       </c>
       <c r="M14" s="7">
         <v>832</v>
@@ -7532,13 +7526,13 @@
         <v>844203</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7612,7 +7606,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7627,7 +7621,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7642,7 +7636,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7657,10 +7651,10 @@
         <v>17750</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>492</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>520</v>
@@ -7672,10 +7666,10 @@
         <v>21233</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>18</v>
+        <v>463</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>258</v>
+        <v>388</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>521</v>
@@ -7693,7 +7687,7 @@
         <v>523</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>524</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7708,10 +7702,10 @@
         <v>53977</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>526</v>
@@ -7723,13 +7717,13 @@
         <v>41332</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>529</v>
       </c>
       <c r="M18" s="7">
         <v>89</v>
@@ -7738,13 +7732,13 @@
         <v>95309</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7759,13 +7753,13 @@
         <v>179817</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>534</v>
+        <v>34</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="H19" s="7">
         <v>150</v>
@@ -7774,13 +7768,13 @@
         <v>161450</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>412</v>
+        <v>533</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="M19" s="7">
         <v>313</v>
@@ -7789,13 +7783,13 @@
         <v>341267</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7810,13 +7804,13 @@
         <v>760704</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>541</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>543</v>
       </c>
       <c r="H20" s="7">
         <v>748</v>
@@ -7825,13 +7819,13 @@
         <v>798991</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>544</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>546</v>
       </c>
       <c r="M20" s="7">
         <v>1460</v>
@@ -7840,13 +7834,13 @@
         <v>1559695</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7902,7 +7896,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7920,7 +7914,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7935,7 +7929,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -7950,7 +7944,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7965,13 +7959,13 @@
         <v>41298</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>186</v>
+        <v>333</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H23" s="7">
         <v>32</v>
@@ -7980,13 +7974,13 @@
         <v>33220</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>554</v>
+        <v>521</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="M23" s="7">
         <v>69</v>
@@ -7995,13 +7989,13 @@
         <v>74518</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>66</v>
+        <v>555</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8016,13 +8010,13 @@
         <v>92744</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>559</v>
       </c>
       <c r="H24" s="7">
         <v>97</v>
@@ -8031,13 +8025,13 @@
         <v>100696</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>562</v>
       </c>
       <c r="M24" s="7">
         <v>179</v>
@@ -8046,7 +8040,7 @@
         <v>193440</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>373</v>
+        <v>562</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>563</v>
@@ -8103,7 +8097,7 @@
         <v>572</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>573</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8118,13 +8112,13 @@
         <v>441206</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>575</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>576</v>
       </c>
       <c r="H26" s="7">
         <v>428</v>
@@ -8133,13 +8127,13 @@
         <v>465592</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>578</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>579</v>
       </c>
       <c r="M26" s="7">
         <v>837</v>
@@ -8148,13 +8142,13 @@
         <v>906798</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>581</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8210,7 +8204,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8228,7 +8222,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -8243,7 +8237,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -8258,7 +8252,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8273,13 +8267,13 @@
         <v>12229</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>583</v>
+        <v>523</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H29" s="7">
         <v>20</v>
@@ -8288,13 +8282,13 @@
         <v>21082</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>585</v>
+        <v>18</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>586</v>
+        <v>388</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="M29" s="7">
         <v>32</v>
@@ -8303,13 +8297,13 @@
         <v>33312</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>589</v>
+        <v>287</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8324,13 +8318,13 @@
         <v>36970</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>591</v>
+        <v>220</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>103</v>
+        <v>587</v>
       </c>
       <c r="H30" s="7">
         <v>38</v>
@@ -8339,13 +8333,13 @@
         <v>40718</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>301</v>
+        <v>588</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="M30" s="7">
         <v>76</v>
@@ -8354,13 +8348,13 @@
         <v>77688</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>527</v>
+        <v>487</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8375,13 +8369,13 @@
         <v>135948</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="H31" s="7">
         <v>122</v>
@@ -8390,13 +8384,13 @@
         <v>129243</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>61</v>
+        <v>596</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="M31" s="7">
         <v>256</v>
@@ -8405,13 +8399,13 @@
         <v>265192</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>74</v>
+        <v>599</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8426,13 +8420,13 @@
         <v>726177</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>603</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>604</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>605</v>
       </c>
       <c r="H32" s="7">
         <v>748</v>
@@ -8441,13 +8435,13 @@
         <v>818288</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>606</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>607</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>608</v>
       </c>
       <c r="M32" s="7">
         <v>1473</v>
@@ -8456,13 +8450,13 @@
         <v>1544465</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>609</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8536,7 +8530,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -8551,7 +8545,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -8566,7 +8560,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8581,13 +8575,13 @@
         <v>84583</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>423</v>
+        <v>610</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>359</v>
+        <v>24</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H35" s="7">
         <v>80</v>
@@ -8596,13 +8590,13 @@
         <v>83945</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>613</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>615</v>
       </c>
       <c r="M35" s="7">
         <v>156</v>
@@ -8611,13 +8605,13 @@
         <v>168528</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>616</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8632,13 +8626,13 @@
         <v>223443</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>621</v>
+        <v>464</v>
       </c>
       <c r="H36" s="7">
         <v>194</v>
@@ -8647,13 +8641,13 @@
         <v>202269</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="M36" s="7">
         <v>401</v>
@@ -8662,13 +8656,13 @@
         <v>425712</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>625</v>
+        <v>329</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>106</v>
+        <v>623</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8683,13 +8677,13 @@
         <v>606043</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="H37" s="7">
         <v>517</v>
@@ -8698,13 +8692,13 @@
         <v>540297</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="M37" s="7">
         <v>1082</v>
@@ -8713,13 +8707,13 @@
         <v>1146341</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8734,13 +8728,13 @@
         <v>2409540</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H38" s="7">
         <v>2458</v>
@@ -8749,13 +8743,13 @@
         <v>2622071</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="M38" s="7">
         <v>4776</v>
@@ -8764,13 +8758,13 @@
         <v>5031611</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8826,7 +8820,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -8847,7 +8841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59682B8-6782-4256-A0DD-17B126DBA1A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E932E180-53C9-4A6E-A692-6141DF406E63}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8864,7 +8858,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8977,7 +8971,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>393</v>
+        <v>420</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8992,7 +8986,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -9007,7 +9001,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>291</v>
+        <v>643</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9022,13 +9016,13 @@
         <v>1224</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -9043,7 +9037,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -9052,13 +9046,13 @@
         <v>1224</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>291</v>
+        <v>643</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9073,13 +9067,13 @@
         <v>5320</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>325</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>650</v>
+        <v>434</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -9088,13 +9082,13 @@
         <v>2202</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="M6" s="7">
         <v>10</v>
@@ -9103,13 +9097,13 @@
         <v>7522</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9124,13 +9118,13 @@
         <v>18075</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>561</v>
+        <v>652</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -9139,13 +9133,13 @@
         <v>16125</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="M7" s="7">
         <v>52</v>
@@ -9154,13 +9148,13 @@
         <v>34200</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9175,13 +9169,13 @@
         <v>77363</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="H8" s="7">
         <v>204</v>
@@ -9190,13 +9184,13 @@
         <v>110665</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="M8" s="7">
         <v>295</v>
@@ -9205,13 +9199,13 @@
         <v>188028</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9285,7 +9279,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -9294,13 +9288,13 @@
         <v>27005</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>368</v>
+        <v>669</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -9309,13 +9303,13 @@
         <v>27005</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9330,13 +9324,13 @@
         <v>2744</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -9345,13 +9339,13 @@
         <v>159</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -9360,13 +9354,13 @@
         <v>2903</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>678</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>679</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9381,13 +9375,13 @@
         <v>26434</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H12" s="7">
         <v>26</v>
@@ -9396,13 +9390,13 @@
         <v>18785</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>682</v>
+        <v>613</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>359</v>
+        <v>680</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>683</v>
+        <v>365</v>
       </c>
       <c r="M12" s="7">
         <v>54</v>
@@ -9411,13 +9405,13 @@
         <v>45219</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>493</v>
+        <v>65</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9432,13 +9426,13 @@
         <v>39414</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>526</v>
+        <v>683</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>686</v>
+        <v>298</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="H13" s="7">
         <v>60</v>
@@ -9447,13 +9441,13 @@
         <v>32097</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="M13" s="7">
         <v>108</v>
@@ -9462,13 +9456,13 @@
         <v>71511</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>691</v>
+        <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9483,13 +9477,13 @@
         <v>478487</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H14" s="7">
         <v>905</v>
@@ -9498,13 +9492,13 @@
         <v>539328</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="M14" s="7">
         <v>1433</v>
@@ -9513,13 +9507,13 @@
         <v>1017815</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9593,7 +9587,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -9602,13 +9596,13 @@
         <v>605</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -9617,13 +9611,13 @@
         <v>605</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9638,13 +9632,13 @@
         <v>2363</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -9653,13 +9647,13 @@
         <v>11329</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -9668,13 +9662,13 @@
         <v>13692</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>259</v>
+        <v>704</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9689,13 +9683,13 @@
         <v>38055</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>710</v>
+        <v>466</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H18" s="7">
         <v>52</v>
@@ -9704,13 +9698,13 @@
         <v>38167</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>711</v>
+        <v>461</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="M18" s="7">
         <v>89</v>
@@ -9719,13 +9713,13 @@
         <v>76223</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>714</v>
+        <v>616</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9740,13 +9734,13 @@
         <v>94173</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="H19" s="7">
         <v>146</v>
@@ -9755,13 +9749,13 @@
         <v>96806</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>719</v>
+        <v>550</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="M19" s="7">
         <v>235</v>
@@ -9770,13 +9764,13 @@
         <v>190979</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9791,13 +9785,13 @@
         <v>895864</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="H20" s="7">
         <v>1293</v>
@@ -9806,13 +9800,13 @@
         <v>904943</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="M20" s="7">
         <v>2124</v>
@@ -9821,13 +9815,13 @@
         <v>1800807</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9883,7 +9877,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -9901,7 +9895,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -9946,13 +9940,13 @@
         <v>5078</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>733</v>
+        <v>359</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>734</v>
+        <v>418</v>
       </c>
       <c r="H23" s="7">
         <v>11</v>
@@ -9961,13 +9955,13 @@
         <v>10215</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M23" s="7">
         <v>17</v>
@@ -9976,13 +9970,13 @@
         <v>15293</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>736</v>
+        <v>391</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9997,13 +9991,13 @@
         <v>42282</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>107</v>
+        <v>727</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>402</v>
+        <v>728</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="H24" s="7">
         <v>44</v>
@@ -10012,13 +10006,13 @@
         <v>33657</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="M24" s="7">
         <v>78</v>
@@ -10027,13 +10021,13 @@
         <v>75939</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>437</v>
+        <v>731</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>739</v>
+        <v>321</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10048,13 +10042,13 @@
         <v>122576</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="H25" s="7">
         <v>134</v>
@@ -10063,13 +10057,13 @@
         <v>98761</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="M25" s="7">
         <v>243</v>
@@ -10078,13 +10072,13 @@
         <v>221336</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10099,13 +10093,13 @@
         <v>557327</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="H26" s="7">
         <v>853</v>
@@ -10114,13 +10108,13 @@
         <v>730444</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="M26" s="7">
         <v>1378</v>
@@ -10129,13 +10123,13 @@
         <v>1287771</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>421</v>
+        <v>747</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10191,7 +10185,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -10209,7 +10203,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -10224,7 +10218,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -10239,7 +10233,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10254,13 +10248,13 @@
         <v>19278</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="H29" s="7">
         <v>16</v>
@@ -10269,13 +10263,13 @@
         <v>13606</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>428</v>
+        <v>756</v>
       </c>
       <c r="M29" s="7">
         <v>38</v>
@@ -10287,10 +10281,10 @@
         <v>14</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>428</v>
+        <v>756</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10305,13 +10299,13 @@
         <v>62338</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="H30" s="7">
         <v>73</v>
@@ -10320,13 +10314,13 @@
         <v>50924</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>219</v>
+        <v>763</v>
       </c>
       <c r="M30" s="7">
         <v>125</v>
@@ -10335,13 +10329,13 @@
         <v>113262</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10356,13 +10350,13 @@
         <v>96363</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>339</v>
+        <v>768</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="H31" s="7">
         <v>141</v>
@@ -10371,13 +10365,13 @@
         <v>100939</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="M31" s="7">
         <v>235</v>
@@ -10386,13 +10380,13 @@
         <v>197302</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>777</v>
+        <v>303</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10407,13 +10401,13 @@
         <v>787266</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H32" s="7">
         <v>1328</v>
@@ -10422,13 +10416,13 @@
         <v>980657</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>785</v>
+        <v>482</v>
       </c>
       <c r="M32" s="7">
         <v>2165</v>
@@ -10437,13 +10431,13 @@
         <v>1767923</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>479</v>
+        <v>781</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10517,7 +10511,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -10526,13 +10520,13 @@
         <v>27609</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="M34" s="7">
         <v>3</v>
@@ -10541,13 +10535,13 @@
         <v>27609</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>791</v>
+        <v>260</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10562,13 +10556,13 @@
         <v>30686</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="H35" s="7">
         <v>42</v>
@@ -10577,13 +10571,13 @@
         <v>35309</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>583</v>
+        <v>523</v>
       </c>
       <c r="M35" s="7">
         <v>80</v>
@@ -10592,13 +10586,13 @@
         <v>65995</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10613,13 +10607,13 @@
         <v>174429</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>299</v>
+        <v>792</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>500</v>
+        <v>794</v>
       </c>
       <c r="H36" s="7">
         <v>199</v>
@@ -10628,13 +10622,13 @@
         <v>143735</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>430</v>
+        <v>795</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M36" s="7">
         <v>356</v>
@@ -10643,13 +10637,13 @@
         <v>318164</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10664,13 +10658,13 @@
         <v>370600</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>342</v>
+        <v>800</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="H37" s="7">
         <v>514</v>
@@ -10679,13 +10673,13 @@
         <v>344728</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>804</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>805</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>806</v>
       </c>
       <c r="M37" s="7">
         <v>873</v>
@@ -10694,13 +10688,13 @@
         <v>715328</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>807</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>808</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10715,13 +10709,13 @@
         <v>2796306</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>810</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>811</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>812</v>
       </c>
       <c r="H38" s="7">
         <v>4583</v>
@@ -10730,13 +10724,13 @@
         <v>3266037</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="M38" s="7">
         <v>7395</v>
@@ -10745,13 +10739,13 @@
         <v>6062344</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>815</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>816</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10807,7 +10801,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P27_1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P27_1-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B144D45-E5A0-4A98-B8A7-B470D5814AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC048907-4F7F-4908-AC4D-4F7440B26B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8C454AE0-916B-415E-B2D1-31DCE28B7F2F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F9C1A8C3-BEC2-4712-BE40-960F9BD5796E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="808">
   <si>
     <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los días de diario en 2007 (Tasa respuesta: 94,99%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>996.0</t>
@@ -95,2398 +95,2374 @@
     <t>5,32%</t>
   </si>
   <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>De 1 a 4 horas</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>Menos de una hora</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los días de diario en 2012 (Tasa respuesta: 96,74%)</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los días de diario en 2016 (Tasa respuesta: 97,66%)</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
     <t>2,09%</t>
   </si>
   <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los días de diario en 2023 (Tasa respuesta: 99,59%)</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
     <t>10,76%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>De 1 a 4 horas</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>Menos de una hora</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los días de diario en 2012 (Tasa respuesta: 96,74%)</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
   </si>
   <si>
     <t>9,96%</t>
   </si>
   <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los días de diario en 2015 (Tasa respuesta: 97,66%)</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los días de diario en 2023 (Tasa respuesta: 99,59%)</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
     <t>9,95%</t>
   </si>
   <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
     <t>82,93%</t>
   </si>
   <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
   </si>
   <si>
     <t>84,32%</t>
   </si>
   <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
+    <t>85,41%</t>
   </si>
 </sst>
 </file>
@@ -2898,7 +2874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF0DDCF-B5DB-4B5B-A26E-FD211C2A8397}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA66D988-F6AB-4F54-A080-EE6DCF7B81EE}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3689,13 +3665,13 @@
         <v>77940</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H17" s="7">
         <v>48</v>
@@ -3704,13 +3680,13 @@
         <v>50439</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M17" s="7">
         <v>119</v>
@@ -3719,13 +3695,13 @@
         <v>128379</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,13 +3716,13 @@
         <v>202535</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H18" s="7">
         <v>126</v>
@@ -3755,13 +3731,13 @@
         <v>134493</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M18" s="7">
         <v>313</v>
@@ -3770,13 +3746,13 @@
         <v>337028</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3791,10 +3767,10 @@
         <v>341017</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>119</v>
@@ -3818,7 +3794,7 @@
         <v>676</v>
       </c>
       <c r="N19" s="7">
-        <v>720353</v>
+        <v>720352</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>123</v>
@@ -3920,7 +3896,7 @@
         <v>1745</v>
       </c>
       <c r="N21" s="7">
-        <v>1862723</v>
+        <v>1862722</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>56</v>
@@ -4117,10 +4093,10 @@
         <v>160</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M25" s="7">
         <v>494</v>
@@ -4129,13 +4105,13 @@
         <v>513808</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,13 +4126,13 @@
         <v>216466</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H26" s="7">
         <v>308</v>
@@ -4165,13 +4141,13 @@
         <v>301584</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M26" s="7">
         <v>516</v>
@@ -4180,13 +4156,13 @@
         <v>518049</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4242,7 +4218,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4260,7 +4236,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4275,7 +4251,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4290,7 +4266,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4305,13 +4281,13 @@
         <v>70567</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H29" s="7">
         <v>51</v>
@@ -4320,13 +4296,13 @@
         <v>54318</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M29" s="7">
         <v>125</v>
@@ -4335,13 +4311,13 @@
         <v>124885</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4356,13 +4332,13 @@
         <v>185085</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H30" s="7">
         <v>151</v>
@@ -4371,13 +4347,13 @@
         <v>158102</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M30" s="7">
         <v>348</v>
@@ -4386,13 +4362,13 @@
         <v>343187</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,13 +4383,13 @@
         <v>352851</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H31" s="7">
         <v>370</v>
@@ -4422,13 +4398,13 @@
         <v>384718</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M31" s="7">
         <v>734</v>
@@ -4437,13 +4413,13 @@
         <v>737569</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,13 +4434,13 @@
         <v>272981</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H32" s="7">
         <v>362</v>
@@ -4473,13 +4449,13 @@
         <v>376689</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M32" s="7">
         <v>658</v>
@@ -4488,13 +4464,13 @@
         <v>649670</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4568,7 +4544,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -4583,7 +4559,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -4598,7 +4574,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,13 +4589,13 @@
         <v>259906</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H35" s="7">
         <v>150</v>
@@ -4628,13 +4604,13 @@
         <v>154315</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M35" s="7">
         <v>400</v>
@@ -4643,13 +4619,13 @@
         <v>414221</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,13 +4640,13 @@
         <v>653068</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>225</v>
+        <v>78</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>226</v>
+        <v>72</v>
       </c>
       <c r="H36" s="7">
         <v>456</v>
@@ -4679,13 +4655,13 @@
         <v>467786</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M36" s="7">
         <v>1094</v>
@@ -4694,13 +4670,13 @@
         <v>1120854</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,13 +4691,13 @@
         <v>1212197</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H37" s="7">
         <v>1281</v>
@@ -4730,13 +4706,13 @@
         <v>1316075</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M37" s="7">
         <v>2461</v>
@@ -4745,13 +4721,13 @@
         <v>2528273</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4766,13 +4742,13 @@
         <v>988542</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>244</v>
+        <v>90</v>
       </c>
       <c r="H38" s="7">
         <v>1245</v>
@@ -4781,13 +4757,13 @@
         <v>1272436</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="M38" s="7">
         <v>2230</v>
@@ -4796,13 +4772,13 @@
         <v>2260978</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,7 +4834,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -4879,7 +4855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0217F85F-ABDD-4F88-8F25-42013F8D6313}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1962FB8D-6F22-4906-A528-24BFA6616552}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4896,7 +4872,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5009,7 +4985,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5024,7 +5000,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5039,7 +5015,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5054,13 +5030,13 @@
         <v>1764</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>102</v>
+        <v>253</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -5069,13 +5045,13 @@
         <v>1053</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -5084,13 +5060,13 @@
         <v>2816</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5105,13 +5081,13 @@
         <v>12613</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -5120,13 +5096,13 @@
         <v>7290</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>147</v>
+        <v>262</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M6" s="7">
         <v>19</v>
@@ -5135,13 +5111,13 @@
         <v>19904</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5156,13 +5132,13 @@
         <v>13701</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -5171,10 +5147,10 @@
         <v>13319</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>273</v>
@@ -5186,13 +5162,13 @@
         <v>27020</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>112</v>
+        <v>274</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5207,13 +5183,13 @@
         <v>85910</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H8" s="7">
         <v>78</v>
@@ -5222,13 +5198,13 @@
         <v>87717</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M8" s="7">
         <v>169</v>
@@ -5237,13 +5213,13 @@
         <v>173626</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5362,13 +5338,13 @@
         <v>10700</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>285</v>
+        <v>21</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -5377,13 +5353,13 @@
         <v>7087</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M11" s="7">
         <v>17</v>
@@ -5392,13 +5368,13 @@
         <v>17787</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5413,13 +5389,13 @@
         <v>24162</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H12" s="7">
         <v>19</v>
@@ -5428,13 +5404,13 @@
         <v>20048</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M12" s="7">
         <v>42</v>
@@ -5443,13 +5419,13 @@
         <v>44210</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5464,13 +5440,13 @@
         <v>70376</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H13" s="7">
         <v>52</v>
@@ -5479,13 +5455,13 @@
         <v>54661</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>218</v>
+        <v>306</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M13" s="7">
         <v>120</v>
@@ -5494,13 +5470,13 @@
         <v>125037</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5515,13 +5491,13 @@
         <v>480562</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H14" s="7">
         <v>465</v>
@@ -5530,13 +5506,13 @@
         <v>495142</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M14" s="7">
         <v>914</v>
@@ -5545,13 +5521,13 @@
         <v>975704</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5625,7 +5601,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5640,7 +5616,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5655,7 +5631,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5670,13 +5646,13 @@
         <v>23311</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -5685,13 +5661,13 @@
         <v>18059</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M17" s="7">
         <v>39</v>
@@ -5700,13 +5676,13 @@
         <v>41370</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,13 +5697,13 @@
         <v>48190</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>258</v>
+        <v>329</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H18" s="7">
         <v>39</v>
@@ -5736,13 +5712,13 @@
         <v>41181</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>330</v>
+        <v>104</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>17</v>
+        <v>333</v>
       </c>
       <c r="M18" s="7">
         <v>84</v>
@@ -5751,13 +5727,13 @@
         <v>89371</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5772,13 +5748,13 @@
         <v>131620</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>34</v>
+        <v>339</v>
       </c>
       <c r="H19" s="7">
         <v>90</v>
@@ -5787,13 +5763,13 @@
         <v>97085</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>69</v>
+        <v>340</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>336</v>
+        <v>67</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="M19" s="7">
         <v>215</v>
@@ -5802,13 +5778,13 @@
         <v>228705</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5823,13 +5799,13 @@
         <v>803843</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="H20" s="7">
         <v>784</v>
@@ -5838,13 +5814,13 @@
         <v>865103</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="M20" s="7">
         <v>1517</v>
@@ -5853,13 +5829,13 @@
         <v>1668946</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5933,7 +5909,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5948,7 +5924,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5963,7 +5939,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5978,13 +5954,13 @@
         <v>10572</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -5993,13 +5969,13 @@
         <v>7663</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="M23" s="7">
         <v>18</v>
@@ -6008,13 +5984,13 @@
         <v>18235</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>254</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6029,13 +6005,13 @@
         <v>21526</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="H24" s="7">
         <v>18</v>
@@ -6044,13 +6020,13 @@
         <v>20629</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="M24" s="7">
         <v>37</v>
@@ -6059,13 +6035,13 @@
         <v>42156</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>324</v>
+        <v>371</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>261</v>
+        <v>373</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6080,13 +6056,13 @@
         <v>78507</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="H25" s="7">
         <v>83</v>
@@ -6095,13 +6071,13 @@
         <v>88171</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="M25" s="7">
         <v>158</v>
@@ -6110,13 +6086,13 @@
         <v>166678</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>374</v>
+        <v>304</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6131,13 +6107,13 @@
         <v>631959</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="H26" s="7">
         <v>588</v>
@@ -6146,13 +6122,13 @@
         <v>651020</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="M26" s="7">
         <v>1160</v>
@@ -6161,13 +6137,13 @@
         <v>1282979</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6223,7 +6199,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6241,7 +6217,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6256,7 +6232,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -6286,13 +6262,13 @@
         <v>20589</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>386</v>
+        <v>335</v>
       </c>
       <c r="H29" s="7">
         <v>21</v>
@@ -6301,13 +6277,13 @@
         <v>21319</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>388</v>
+        <v>356</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="M29" s="7">
         <v>42</v>
@@ -6316,13 +6292,13 @@
         <v>41908</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6337,13 +6313,13 @@
         <v>42099</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="H30" s="7">
         <v>46</v>
@@ -6352,13 +6328,13 @@
         <v>46462</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>142</v>
+        <v>403</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>179</v>
+        <v>404</v>
       </c>
       <c r="M30" s="7">
         <v>88</v>
@@ -6367,13 +6343,13 @@
         <v>88560</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6388,13 +6364,13 @@
         <v>145976</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>402</v>
+        <v>70</v>
       </c>
       <c r="H31" s="7">
         <v>110</v>
@@ -6403,13 +6379,13 @@
         <v>115292</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="M31" s="7">
         <v>253</v>
@@ -6418,13 +6394,13 @@
         <v>261267</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6439,13 +6415,13 @@
         <v>672034</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="H32" s="7">
         <v>733</v>
@@ -6454,13 +6430,13 @@
         <v>771593</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="M32" s="7">
         <v>1374</v>
@@ -6469,13 +6445,13 @@
         <v>1443627</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>415</v>
+        <v>313</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6549,7 +6525,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6564,7 +6540,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6579,7 +6555,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6594,13 +6570,13 @@
         <v>66935</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>366</v>
+        <v>298</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="H35" s="7">
         <v>53</v>
@@ -6609,13 +6585,13 @@
         <v>55181</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>18</v>
+        <v>428</v>
       </c>
       <c r="M35" s="7">
         <v>119</v>
@@ -6624,13 +6600,13 @@
         <v>122116</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>422</v>
+        <v>364</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6645,10 +6621,10 @@
         <v>148591</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>426</v>
+        <v>300</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>145</v>
@@ -6660,13 +6636,13 @@
         <v>135610</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>429</v>
+        <v>329</v>
       </c>
       <c r="M36" s="7">
         <v>270</v>
@@ -6675,13 +6651,13 @@
         <v>284201</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6696,13 +6672,13 @@
         <v>440180</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="H37" s="7">
         <v>346</v>
@@ -6711,13 +6687,13 @@
         <v>368528</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="M37" s="7">
         <v>772</v>
@@ -6726,13 +6702,13 @@
         <v>808708</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6747,13 +6723,13 @@
         <v>2674307</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="H38" s="7">
         <v>2648</v>
@@ -6762,13 +6738,13 @@
         <v>2870575</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>446</v>
+        <v>383</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="M38" s="7">
         <v>5134</v>
@@ -6777,13 +6753,13 @@
         <v>5544883</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6839,7 +6815,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -6860,7 +6836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD071760-7615-4297-ABC0-7EB1049744D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C47E94-95B8-4CDE-AAAF-58C2D5FF4522}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6877,7 +6853,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6990,7 +6966,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7005,7 +6981,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>453</v>
+        <v>369</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7020,7 +6996,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7035,13 +7011,13 @@
         <v>1108</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -7050,13 +7026,13 @@
         <v>1843</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -7065,13 +7041,13 @@
         <v>2951</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>20</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7086,13 +7062,13 @@
         <v>9209</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -7101,13 +7077,13 @@
         <v>2317</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
@@ -7116,13 +7092,13 @@
         <v>11526</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>466</v>
+        <v>368</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7137,13 +7113,13 @@
         <v>18718</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -7152,13 +7128,13 @@
         <v>17143</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>471</v>
+        <v>339</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M7" s="7">
         <v>37</v>
@@ -7167,13 +7143,13 @@
         <v>35861</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7188,13 +7164,13 @@
         <v>86431</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H8" s="7">
         <v>90</v>
@@ -7203,13 +7179,13 @@
         <v>90018</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M8" s="7">
         <v>174</v>
@@ -7218,13 +7194,13 @@
         <v>176450</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>282</v>
+        <v>485</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7313,7 +7289,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -7343,13 +7319,13 @@
         <v>12197</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>486</v>
+        <v>143</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>323</v>
+        <v>488</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -7358,13 +7334,13 @@
         <v>6567</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="M11" s="7">
         <v>16</v>
@@ -7373,13 +7349,13 @@
         <v>18764</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>492</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7394,13 +7370,13 @@
         <v>30543</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H12" s="7">
         <v>17</v>
@@ -7409,13 +7385,13 @@
         <v>17205</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>361</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M12" s="7">
         <v>46</v>
@@ -7424,13 +7400,13 @@
         <v>47748</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>499</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7451,7 +7427,7 @@
         <v>501</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>226</v>
+        <v>502</v>
       </c>
       <c r="H13" s="7">
         <v>67</v>
@@ -7460,7 +7436,7 @@
         <v>69094</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>502</v>
+        <v>344</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>503</v>
@@ -7526,13 +7502,13 @@
         <v>844203</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7606,7 +7582,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7621,7 +7597,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7636,7 +7612,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7651,13 +7627,13 @@
         <v>17750</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>520</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -7666,10 +7642,10 @@
         <v>21233</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>388</v>
+        <v>520</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>521</v>
@@ -7687,7 +7663,7 @@
         <v>523</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>294</v>
+        <v>524</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7702,13 +7678,13 @@
         <v>53977</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H18" s="7">
         <v>40</v>
@@ -7717,13 +7693,13 @@
         <v>41332</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>487</v>
+        <v>528</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="M18" s="7">
         <v>89</v>
@@ -7732,13 +7708,13 @@
         <v>95309</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>261</v>
+        <v>532</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7753,13 +7729,13 @@
         <v>179817</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>34</v>
+        <v>535</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="H19" s="7">
         <v>150</v>
@@ -7768,13 +7744,13 @@
         <v>161450</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>533</v>
+        <v>226</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="M19" s="7">
         <v>313</v>
@@ -7783,13 +7759,13 @@
         <v>341267</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7804,13 +7780,13 @@
         <v>760704</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="H20" s="7">
         <v>748</v>
@@ -7819,13 +7795,13 @@
         <v>798991</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>544</v>
+        <v>446</v>
       </c>
       <c r="M20" s="7">
         <v>1460</v>
@@ -7834,13 +7810,13 @@
         <v>1559695</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7914,7 +7890,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7929,7 +7905,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -7944,7 +7920,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7959,13 +7935,13 @@
         <v>41298</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>333</v>
+        <v>551</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>550</v>
+        <v>467</v>
       </c>
       <c r="H23" s="7">
         <v>32</v>
@@ -7974,13 +7950,13 @@
         <v>33220</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>521</v>
+        <v>554</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="M23" s="7">
         <v>69</v>
@@ -7989,13 +7965,13 @@
         <v>74518</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>555</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8010,13 +7986,13 @@
         <v>92744</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H24" s="7">
         <v>97</v>
@@ -8025,13 +8001,13 @@
         <v>100696</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M24" s="7">
         <v>179</v>
@@ -8040,13 +8016,13 @@
         <v>193440</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8061,13 +8037,13 @@
         <v>172125</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H25" s="7">
         <v>159</v>
@@ -8076,13 +8052,13 @@
         <v>163368</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M25" s="7">
         <v>316</v>
@@ -8091,13 +8067,13 @@
         <v>335493</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>27</v>
+        <v>574</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8112,13 +8088,13 @@
         <v>441206</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="H26" s="7">
         <v>428</v>
@@ -8127,13 +8103,13 @@
         <v>465592</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="M26" s="7">
         <v>837</v>
@@ -8142,13 +8118,13 @@
         <v>906798</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8204,7 +8180,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8222,7 +8198,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -8237,7 +8213,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -8252,7 +8228,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8267,13 +8243,13 @@
         <v>12229</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>523</v>
+        <v>584</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>359</v>
+        <v>585</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="H29" s="7">
         <v>20</v>
@@ -8282,13 +8258,13 @@
         <v>21082</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>18</v>
+        <v>587</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>388</v>
+        <v>588</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="M29" s="7">
         <v>32</v>
@@ -8297,13 +8273,13 @@
         <v>33312</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>287</v>
+        <v>591</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>585</v>
+        <v>491</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8318,13 +8294,13 @@
         <v>36970</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>220</v>
+        <v>592</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="H30" s="7">
         <v>38</v>
@@ -8333,13 +8309,13 @@
         <v>40718</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>330</v>
+        <v>104</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="M30" s="7">
         <v>76</v>
@@ -8348,13 +8324,13 @@
         <v>77688</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>487</v>
+        <v>528</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>591</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8369,13 +8345,13 @@
         <v>135948</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="H31" s="7">
         <v>122</v>
@@ -8384,13 +8360,13 @@
         <v>129243</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="M31" s="7">
         <v>256</v>
@@ -8399,13 +8375,13 @@
         <v>265192</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>598</v>
+        <v>267</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8420,13 +8396,13 @@
         <v>726177</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>603</v>
+        <v>351</v>
       </c>
       <c r="H32" s="7">
         <v>748</v>
@@ -8435,13 +8411,13 @@
         <v>818288</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="M32" s="7">
         <v>1473</v>
@@ -8450,13 +8426,13 @@
         <v>1544465</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8530,7 +8506,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -8545,7 +8521,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -8560,7 +8536,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8575,13 +8551,13 @@
         <v>84583</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>24</v>
+        <v>615</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>611</v>
+        <v>521</v>
       </c>
       <c r="H35" s="7">
         <v>80</v>
@@ -8590,13 +8566,13 @@
         <v>83945</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>585</v>
+        <v>616</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>612</v>
+        <v>13</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="M35" s="7">
         <v>156</v>
@@ -8605,13 +8581,13 @@
         <v>168528</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>616</v>
+        <v>365</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8626,13 +8602,13 @@
         <v>223443</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>464</v>
+        <v>622</v>
       </c>
       <c r="H36" s="7">
         <v>194</v>
@@ -8641,13 +8617,13 @@
         <v>202269</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>621</v>
+        <v>262</v>
       </c>
       <c r="M36" s="7">
         <v>401</v>
@@ -8656,13 +8632,13 @@
         <v>425712</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>329</v>
+        <v>625</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8677,13 +8653,13 @@
         <v>606043</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="H37" s="7">
         <v>517</v>
@@ -8692,13 +8668,13 @@
         <v>540297</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="M37" s="7">
         <v>1082</v>
@@ -8707,13 +8683,13 @@
         <v>1146341</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8728,13 +8704,13 @@
         <v>2409540</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="H38" s="7">
         <v>2458</v>
@@ -8743,13 +8719,13 @@
         <v>2622071</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="M38" s="7">
         <v>4776</v>
@@ -8758,13 +8734,13 @@
         <v>5031611</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>640</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8820,7 +8796,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -8841,7 +8817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E932E180-53C9-4A6E-A692-6141DF406E63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FAE5CA1-8F5A-41CF-BE12-69B3DD1C733A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8858,7 +8834,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8971,7 +8947,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8986,7 +8962,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -9001,7 +8977,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9016,13 +8992,13 @@
         <v>1224</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -9037,7 +9013,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -9046,13 +9022,13 @@
         <v>1224</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>584</v>
+        <v>650</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9067,13 +9043,13 @@
         <v>5320</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>325</v>
+        <v>652</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>434</v>
+        <v>653</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -9082,13 +9058,13 @@
         <v>2202</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="M6" s="7">
         <v>10</v>
@@ -9097,13 +9073,13 @@
         <v>7522</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>518</v>
+        <v>252</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9118,13 +9094,13 @@
         <v>18075</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>652</v>
+        <v>61</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -9133,13 +9109,13 @@
         <v>16125</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="M7" s="7">
         <v>52</v>
@@ -9148,13 +9124,13 @@
         <v>34200</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9169,13 +9145,13 @@
         <v>77363</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="H8" s="7">
         <v>204</v>
@@ -9184,13 +9160,13 @@
         <v>110665</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="M8" s="7">
         <v>295</v>
@@ -9199,13 +9175,13 @@
         <v>188028</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9288,13 +9264,13 @@
         <v>27005</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>670</v>
+        <v>541</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -9303,13 +9279,13 @@
         <v>27005</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9324,13 +9300,13 @@
         <v>2744</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>673</v>
+        <v>490</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -9339,13 +9315,13 @@
         <v>159</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -9354,13 +9330,13 @@
         <v>2903</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9375,13 +9351,13 @@
         <v>26434</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>105</v>
+        <v>684</v>
       </c>
       <c r="H12" s="7">
         <v>26</v>
@@ -9390,13 +9366,13 @@
         <v>18785</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>613</v>
+        <v>683</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>365</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>54</v>
@@ -9405,13 +9381,13 @@
         <v>45219</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>681</v>
+        <v>406</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>65</v>
+        <v>595</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9426,13 +9402,13 @@
         <v>39414</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>683</v>
+        <v>222</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="H13" s="7">
         <v>60</v>
@@ -9441,13 +9417,13 @@
         <v>32097</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>686</v>
+        <v>406</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M13" s="7">
         <v>108</v>
@@ -9456,13 +9432,13 @@
         <v>71511</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>690</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9477,13 +9453,13 @@
         <v>478487</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="H14" s="7">
         <v>905</v>
@@ -9492,13 +9468,13 @@
         <v>539328</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="M14" s="7">
         <v>1433</v>
@@ -9507,13 +9483,13 @@
         <v>1017815</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9587,7 +9563,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -9596,13 +9572,13 @@
         <v>605</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>548</v>
+        <v>137</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -9611,13 +9587,13 @@
         <v>605</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9632,13 +9608,13 @@
         <v>2363</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -9647,13 +9623,13 @@
         <v>11329</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>701</v>
+        <v>682</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>702</v>
+        <v>366</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -9662,10 +9638,10 @@
         <v>13692</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>704</v>
+        <v>257</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>705</v>
@@ -9686,10 +9662,10 @@
         <v>706</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>466</v>
+        <v>618</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>145</v>
+        <v>707</v>
       </c>
       <c r="H18" s="7">
         <v>52</v>
@@ -9698,13 +9674,13 @@
         <v>38167</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>461</v>
+        <v>708</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>363</v>
+        <v>709</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="M18" s="7">
         <v>89</v>
@@ -9713,13 +9689,13 @@
         <v>76223</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>616</v>
+        <v>365</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>649</v>
+        <v>712</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9734,13 +9710,13 @@
         <v>94173</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="H19" s="7">
         <v>146</v>
@@ -9749,13 +9725,13 @@
         <v>96806</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>550</v>
+        <v>717</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="M19" s="7">
         <v>235</v>
@@ -9764,13 +9740,13 @@
         <v>190979</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>714</v>
+        <v>141</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>716</v>
+        <v>440</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9785,13 +9761,13 @@
         <v>895864</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="H20" s="7">
         <v>1293</v>
@@ -9800,13 +9776,13 @@
         <v>904943</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="M20" s="7">
         <v>2124</v>
@@ -9815,13 +9791,13 @@
         <v>1800807</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9895,7 +9871,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -9940,13 +9916,13 @@
         <v>5078</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>359</v>
+        <v>729</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="H23" s="7">
         <v>11</v>
@@ -9955,13 +9931,13 @@
         <v>10215</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>648</v>
+        <v>490</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>486</v>
+        <v>731</v>
       </c>
       <c r="M23" s="7">
         <v>17</v>
@@ -9970,13 +9946,13 @@
         <v>15293</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>673</v>
+        <v>732</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>391</v>
+        <v>517</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9991,13 +9967,13 @@
         <v>42282</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="H24" s="7">
         <v>44</v>
@@ -10006,13 +9982,13 @@
         <v>33657</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>686</v>
+        <v>736</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>390</v>
+        <v>737</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="M24" s="7">
         <v>78</v>
@@ -10021,13 +9997,13 @@
         <v>75939</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10042,13 +10018,13 @@
         <v>122576</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="H25" s="7">
         <v>134</v>
@@ -10057,13 +10033,13 @@
         <v>98761</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="M25" s="7">
         <v>243</v>
@@ -10072,13 +10048,13 @@
         <v>221336</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>739</v>
+        <v>379</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>741</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10093,13 +10069,13 @@
         <v>557327</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="H26" s="7">
         <v>853</v>
@@ -10108,13 +10084,13 @@
         <v>730444</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="M26" s="7">
         <v>1378</v>
@@ -10123,13 +10099,13 @@
         <v>1287771</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10185,7 +10161,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -10203,7 +10179,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -10218,7 +10194,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -10233,7 +10209,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>751</v>
+        <v>681</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10248,13 +10224,13 @@
         <v>19278</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>752</v>
+        <v>685</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>754</v>
+        <v>554</v>
       </c>
       <c r="H29" s="7">
         <v>16</v>
@@ -10263,13 +10239,13 @@
         <v>13606</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>755</v>
+        <v>427</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="M29" s="7">
         <v>38</v>
@@ -10281,10 +10257,10 @@
         <v>14</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>757</v>
+        <v>703</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>756</v>
+        <v>430</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10299,13 +10275,13 @@
         <v>62338</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H30" s="7">
         <v>73</v>
@@ -10314,10 +10290,10 @@
         <v>50924</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>762</v>
+        <v>297</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>763</v>
@@ -10329,13 +10305,13 @@
         <v>113262</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>764</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>765</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10350,13 +10326,13 @@
         <v>96363</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>767</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>768</v>
-      </c>
       <c r="G31" s="7" t="s">
-        <v>769</v>
+        <v>113</v>
       </c>
       <c r="H31" s="7">
         <v>141</v>
@@ -10365,13 +10341,13 @@
         <v>100939</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>770</v>
+        <v>661</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="M31" s="7">
         <v>235</v>
@@ -10380,13 +10356,13 @@
         <v>197302</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>303</v>
+        <v>770</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10398,16 +10374,16 @@
         <v>837</v>
       </c>
       <c r="D32" s="7">
-        <v>787266</v>
+        <v>787265</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>775</v>
+        <v>319</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="H32" s="7">
         <v>1328</v>
@@ -10416,13 +10392,13 @@
         <v>980657</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>482</v>
+        <v>777</v>
       </c>
       <c r="M32" s="7">
         <v>2165</v>
@@ -10431,13 +10407,13 @@
         <v>1767923</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>780</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>781</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10449,7 +10425,7 @@
         <v>1005</v>
       </c>
       <c r="D33" s="7">
-        <v>965244</v>
+        <v>965243</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>56</v>
@@ -10511,7 +10487,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -10520,13 +10496,13 @@
         <v>27609</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>783</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>784</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>785</v>
       </c>
       <c r="M34" s="7">
         <v>3</v>
@@ -10535,13 +10511,13 @@
         <v>27609</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10556,13 +10532,13 @@
         <v>30686</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>789</v>
+        <v>256</v>
       </c>
       <c r="H35" s="7">
         <v>42</v>
@@ -10571,13 +10547,13 @@
         <v>35309</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>291</v>
+        <v>787</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>523</v>
+        <v>789</v>
       </c>
       <c r="M35" s="7">
         <v>80</v>
@@ -10586,13 +10562,13 @@
         <v>65995</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>291</v>
+        <v>787</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>755</v>
+        <v>730</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10607,13 +10583,13 @@
         <v>174429</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>792</v>
+        <v>302</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="H36" s="7">
         <v>199</v>
@@ -10622,13 +10598,13 @@
         <v>143735</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>796</v>
+        <v>589</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>331</v>
+        <v>181</v>
       </c>
       <c r="M36" s="7">
         <v>356</v>
@@ -10637,13 +10613,13 @@
         <v>318164</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>798</v>
+        <v>457</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>553</v>
+        <v>691</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10658,13 +10634,13 @@
         <v>370600</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="H37" s="7">
         <v>514</v>
@@ -10673,13 +10649,13 @@
         <v>344728</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="M37" s="7">
         <v>873</v>
@@ -10688,13 +10664,13 @@
         <v>715328</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>806</v>
+        <v>713</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>807</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10709,13 +10685,13 @@
         <v>2796306</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="H38" s="7">
         <v>4583</v>
@@ -10724,28 +10700,28 @@
         <v>3266037</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="M38" s="7">
         <v>7395</v>
       </c>
       <c r="N38" s="7">
-        <v>6062344</v>
+        <v>6062343</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10787,7 +10763,7 @@
         <v>8707</v>
       </c>
       <c r="N39" s="7">
-        <v>7189441</v>
+        <v>7189440</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>56</v>
@@ -10801,7 +10777,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
